--- a/biology/Zoologie/Hemiphlebia_mirabilis/Hemiphlebia_mirabilis.xlsx
+++ b/biology/Zoologie/Hemiphlebia_mirabilis/Hemiphlebia_mirabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiphlebia mirabilis  est une espèce monotypique dans la famille des Hemiphlebiidae appartenant au sous-ordre des Zygoptera dans l'ordre des Odonates[1]. Il s'agit d'une espèce endémique du sud de l'Australie. Elle est menacée par la perte de son habitat.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiphlebia mirabilis  est une espèce monotypique dans la famille des Hemiphlebiidae appartenant au sous-ordre des Zygoptera dans l'ordre des Odonates. Il s'agit d'une espèce endémique du sud de l'Australie. Elle est menacée par la perte de son habitat.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiphlebiidae mirabilis est une petite espèce vert métallique à l'abdomen allongé, aux ailes transparentes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiphlebiidae mirabilis est une petite espèce vert métallique à l'abdomen allongé, aux ailes transparentes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a peu de populations de cette petite demoiselle. On la retrouve sur l'île du Roi, Mont William en Tasmanie et en Australie. Cette espèce fréquente les étangs d'eau douce, les lagunes et les marais riverains temporaires[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a peu de populations de cette petite demoiselle. On la retrouve sur l'île du Roi, Mont William en Tasmanie et en Australie. Cette espèce fréquente les étangs d'eau douce, les lagunes et les marais riverains temporaires.
 </t>
         </is>
       </c>
